--- a/firebase_data_spyEnsamble.xlsx
+++ b/firebase_data_spyEnsamble.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E575"/>
+  <dimension ref="A1:E576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10207,11 +10207,28 @@
       <c r="B575" s="2" t="n">
         <v>45763.47916666666</v>
       </c>
-      <c r="C575" t="inlineStr"/>
+      <c r="C575" t="n">
+        <v>0</v>
+      </c>
       <c r="D575" t="n">
         <v>0</v>
       </c>
-      <c r="E575" t="inlineStr"/>
+      <c r="E575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>45764.47916666666</v>
+      </c>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="n">
+        <v>0</v>
+      </c>
+      <c r="E576" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyEnsamble.xlsx
+++ b/firebase_data_spyEnsamble.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E576"/>
+  <dimension ref="A1:E579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10224,11 +10224,62 @@
       <c r="B576" s="2" t="n">
         <v>45764.47916666666</v>
       </c>
-      <c r="C576" t="inlineStr"/>
+      <c r="C576" t="n">
+        <v>0</v>
+      </c>
       <c r="D576" t="n">
         <v>0</v>
       </c>
-      <c r="E576" t="inlineStr"/>
+      <c r="E576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0</v>
+      </c>
+      <c r="E577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>45769.47916666666</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0</v>
+      </c>
+      <c r="E578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>45770.47916666666</v>
+      </c>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="n">
+        <v>0</v>
+      </c>
+      <c r="E579" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyEnsamble.xlsx
+++ b/firebase_data_spyEnsamble.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E579"/>
+  <dimension ref="A1:E581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10275,11 +10275,45 @@
       <c r="B579" s="2" t="n">
         <v>45770.47916666666</v>
       </c>
-      <c r="C579" t="inlineStr"/>
+      <c r="C579" t="n">
+        <v>0</v>
+      </c>
       <c r="D579" t="n">
         <v>0</v>
       </c>
-      <c r="E579" t="inlineStr"/>
+      <c r="E579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>45771.47916666666</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>45772.47916666666</v>
+      </c>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="n">
+        <v>0</v>
+      </c>
+      <c r="E581" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyEnsamble.xlsx
+++ b/firebase_data_spyEnsamble.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E581"/>
+  <dimension ref="A1:E584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10309,11 +10309,62 @@
       <c r="B581" s="2" t="n">
         <v>45772.47916666666</v>
       </c>
-      <c r="C581" t="inlineStr"/>
+      <c r="C581" t="n">
+        <v>1</v>
+      </c>
       <c r="D581" t="n">
         <v>0</v>
       </c>
-      <c r="E581" t="inlineStr"/>
+      <c r="E581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>45775.47916666666</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0</v>
+      </c>
+      <c r="D582" t="n">
+        <v>1</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>45776.47916666666</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1</v>
+      </c>
+      <c r="D583" t="n">
+        <v>1</v>
+      </c>
+      <c r="E583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>45777.47916666666</v>
+      </c>
+      <c r="C584" t="inlineStr"/>
+      <c r="D584" t="n">
+        <v>0</v>
+      </c>
+      <c r="E584" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyEnsamble.xlsx
+++ b/firebase_data_spyEnsamble.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E584"/>
+  <dimension ref="A1:E586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10360,11 +10360,45 @@
       <c r="B584" s="2" t="n">
         <v>45777.47916666666</v>
       </c>
-      <c r="C584" t="inlineStr"/>
+      <c r="C584" t="n">
+        <v>1</v>
+      </c>
       <c r="D584" t="n">
         <v>0</v>
       </c>
-      <c r="E584" t="inlineStr"/>
+      <c r="E584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>45778.47916666666</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0</v>
+      </c>
+      <c r="D585" t="n">
+        <v>1</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>45779.47916666666</v>
+      </c>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="n">
+        <v>1</v>
+      </c>
+      <c r="E586" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyEnsamble.xlsx
+++ b/firebase_data_spyEnsamble.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E586"/>
+  <dimension ref="A1:E589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10394,11 +10394,62 @@
       <c r="B586" s="2" t="n">
         <v>45779.47916666666</v>
       </c>
-      <c r="C586" t="inlineStr"/>
+      <c r="C586" t="n">
+        <v>1</v>
+      </c>
       <c r="D586" t="n">
         <v>1</v>
       </c>
-      <c r="E586" t="inlineStr"/>
+      <c r="E586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>45782.47916666666</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1</v>
+      </c>
+      <c r="D587" t="n">
+        <v>1</v>
+      </c>
+      <c r="E587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>45783.47916666666</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1</v>
+      </c>
+      <c r="E588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>45784.47916666666</v>
+      </c>
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="n">
+        <v>1</v>
+      </c>
+      <c r="E589" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
